--- a/surfer_updates.xlsx
+++ b/surfer_updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFD9937-380E-43D0-96DE-DB190CB6E4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C05F-3A19-4D4B-9417-F1066732A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8956FD6B-1418-4E93-9AE6-725BD5EE11F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Site name</t>
   </si>
@@ -186,6 +186,24 @@
   <si>
     <t>DHL_ASHS3</t>
   </si>
+  <si>
+    <t>15 05 2025</t>
+  </si>
+  <si>
+    <t>22 03 2025</t>
+  </si>
+  <si>
+    <t>05 05 2025</t>
+  </si>
+  <si>
+    <t>31 03 2025</t>
+  </si>
+  <si>
+    <t>09 05 2025</t>
+  </si>
+  <si>
+    <t>13 05 2025</t>
+  </si>
 </sst>
 </file>
 
@@ -318,32 +336,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -393,6 +385,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -402,43 +416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -453,13 +431,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -779,7 +793,7 @@
   <dimension ref="A1:I5656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -797,327 +811,421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="2">
-        <v>45792</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
-        <v>45738</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2">
-        <v>45782</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
-        <v>45747</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
-        <v>45786</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
-        <v>45782</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
-        <v>45790</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="15" t="s">
         <v>45</v>
       </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="16" t="s">
         <v>23</v>
       </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2">
-        <v>45792</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="17" t="s">
+      <c r="I17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="21" t="s">
         <v>30</v>
       </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/surfer_updates.xlsx
+++ b/surfer_updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B812C05F-3A19-4D4B-9417-F1066732A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C1752-CA04-443A-8A9F-CEC3AB42EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8956FD6B-1418-4E93-9AE6-725BD5EE11F0}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,25 +419,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,6 +457,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,7 +796,7 @@
   <dimension ref="A1:I5656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -811,41 +814,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -853,379 +856,379 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/surfer_updates.xlsx
+++ b/surfer_updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C1752-CA04-443A-8A9F-CEC3AB42EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF2D1A0-595A-4B1A-8ADA-54A3137BFAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8956FD6B-1418-4E93-9AE6-725BD5EE11F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Site name</t>
   </si>
@@ -185,24 +185,6 @@
   </si>
   <si>
     <t>DHL_ASHS3</t>
-  </si>
-  <si>
-    <t>15 05 2025</t>
-  </si>
-  <si>
-    <t>22 03 2025</t>
-  </si>
-  <si>
-    <t>05 05 2025</t>
-  </si>
-  <si>
-    <t>31 03 2025</t>
-  </si>
-  <si>
-    <t>09 05 2025</t>
-  </si>
-  <si>
-    <t>13 05 2025</t>
   </si>
 </sst>
 </file>
@@ -411,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,8 +401,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,9 +420,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -467,17 +455,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,7 +775,7 @@
   <dimension ref="A1:I5656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -814,41 +793,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -856,379 +835,379 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="21">
+        <v>45792</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="21">
+        <v>45738</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="21">
+        <v>45782</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="21">
+        <v>45747</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="21">
+        <v>45786</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="21">
+        <v>45782</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="21">
+        <v>45790</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="21">
+        <v>45792</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
